--- a/Deskify Documents/Product-Backlog.xlsx
+++ b/Deskify Documents/Product-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shwetha.b\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AD88D54-A11F-4DCD-A881-28325C1D0D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1F6CD2-2CA7-47E6-B38D-40AB7446A6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="150">
   <si>
     <t>#</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Application Management / Administration</t>
-  </si>
-  <si>
     <t>Initial Estimation</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>Final PoC Project</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>Prompt Questionnaries</t>
   </si>
   <si>
-    <t>Test case preparation and Unit Testing</t>
-  </si>
-  <si>
     <t>View Pass</t>
   </si>
   <si>
@@ -160,33 +151,15 @@
     <t>Notification for Booked Seat</t>
   </si>
   <si>
-    <t>UI functionality for notification</t>
-  </si>
-  <si>
-    <t>View Floor Map with availabel and booked seats</t>
-  </si>
-  <si>
-    <t>Select Floor and Book Seat</t>
-  </si>
-  <si>
-    <t>UI Functionality for seat booking and tracking</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create booking </t>
   </si>
   <si>
     <t>View and Record Booking Details</t>
   </si>
   <si>
-    <t>Approve and Reject Booking request</t>
-  </si>
-  <si>
     <t>Scan QR and retrieve details</t>
   </si>
   <si>
-    <t>UI Functionality for Admin functionalities</t>
-  </si>
-  <si>
     <t>Get prompt questionnaries</t>
   </si>
   <si>
@@ -355,32 +328,173 @@
     <t>REQ8</t>
   </si>
   <si>
-    <t>REQ08 - Continous Integration</t>
-  </si>
-  <si>
     <t>CI/CD Pipeline and Azure app service</t>
   </si>
   <si>
-    <t>Boards in azure devops</t>
-  </si>
-  <si>
-    <t>REQ9</t>
-  </si>
-  <si>
-    <t>REQ10</t>
-  </si>
-  <si>
     <t>REQ11</t>
   </si>
   <si>
     <t>REQ12</t>
+  </si>
+  <si>
+    <t>Notification if user cancels the booked seat</t>
+  </si>
+  <si>
+    <t>Notification for Booked Meeting room</t>
+  </si>
+  <si>
+    <t>Notification if user cancels the booked Meeting room</t>
+  </si>
+  <si>
+    <t>UI functionalities for Notification</t>
+  </si>
+  <si>
+    <t>Integrating backend with UI for notification</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>Continous Integration</t>
+  </si>
+  <si>
+    <t>View Floor Map with available seats</t>
+  </si>
+  <si>
+    <t>Select Floor and Select Seat</t>
+  </si>
+  <si>
+    <t>Working of Booking seat</t>
+  </si>
+  <si>
+    <t>View Floor</t>
+  </si>
+  <si>
+    <t>Check availabile seats</t>
+  </si>
+  <si>
+    <t>Generate QR code for Employee seat booking</t>
+  </si>
+  <si>
+    <t>Update book seat in database</t>
+  </si>
+  <si>
+    <t>UI Functionality for view floor map and booked seats</t>
+  </si>
+  <si>
+    <t>UI Functionality for Select Floor and Select Seat</t>
+  </si>
+  <si>
+    <t>Integrating backend with UI for seat booking and tracking</t>
+  </si>
+  <si>
+    <t>View Floor Map with available Room</t>
+  </si>
+  <si>
+    <t>Select Floor and Select meeting room</t>
+  </si>
+  <si>
+    <t>Working of Booking meeting room</t>
+  </si>
+  <si>
+    <t>Check availabile rooms</t>
+  </si>
+  <si>
+    <t>Update meeting room in database</t>
+  </si>
+  <si>
+    <t>Integrating backend with UI for meeting room booking and tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF document generation </t>
+  </si>
+  <si>
+    <t>Seaching of Employee details</t>
+  </si>
+  <si>
+    <t>Sorting employee details</t>
+  </si>
+  <si>
+    <t>UI Functionality for creating Booking</t>
+  </si>
+  <si>
+    <t>UI Functionality for view and recording booking details</t>
+  </si>
+  <si>
+    <t>UI Functionality for adding seat and room</t>
+  </si>
+  <si>
+    <t>UI Functionality for scanning QR code</t>
+  </si>
+  <si>
+    <t>Meeting Room Booking and Tracking</t>
+  </si>
+  <si>
+    <t>Admin Dashboard</t>
+  </si>
+  <si>
+    <t>All records</t>
+  </si>
+  <si>
+    <t>Managing seats</t>
+  </si>
+  <si>
+    <t>Manage floor</t>
+  </si>
+  <si>
+    <t>Manage rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating questions to database and displaying </t>
+  </si>
+  <si>
+    <t>Integrating backend with UI for prompt questionnaries</t>
+  </si>
+  <si>
+    <t>REQ14</t>
+  </si>
+  <si>
+    <t>Publishing MVC in the sitecore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sitecore</t>
+  </si>
+  <si>
+    <t>REQ16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deployment</t>
+  </si>
+  <si>
+    <t>REQ13</t>
+  </si>
+  <si>
+    <t>REQ-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integrating backend with UI for Admin functionalities</t>
+  </si>
+  <si>
+    <t>REQ17</t>
+  </si>
+  <si>
+    <t>REQ18</t>
+  </si>
+  <si>
+    <t>Continous integration of MVC application</t>
+  </si>
+  <si>
+    <t>Migrating from Local  MS SQL to Azure SQL</t>
+  </si>
+  <si>
+    <t>Deploying The MVC application in kubernetes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +556,12 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -544,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -592,18 +712,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,6 +722,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1542,13 +1659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,17 +1685,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="9"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -1589,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
@@ -1598,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -1607,12 +1724,12 @@
         <v>4</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="21"/>
       <c r="K2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1672,12 +1789,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="8"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1691,10 +1806,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1710,21 +1825,21 @@
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H8" s="15">
         <v>8</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="16">
         <v>3</v>
       </c>
       <c r="J8" s="3"/>
@@ -1735,21 +1850,21 @@
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H9" s="15">
         <v>5</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="16">
         <v>3</v>
       </c>
       <c r="J9" s="3"/>
@@ -1760,21 +1875,21 @@
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H10" s="15">
         <v>8</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="16">
         <v>7</v>
       </c>
       <c r="J10" s="3"/>
@@ -1785,21 +1900,21 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H11" s="15">
         <v>3</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="16">
         <v>1</v>
       </c>
       <c r="J11" s="3"/>
@@ -1836,27 +1951,27 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H14" s="15">
         <v>3</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="16">
         <v>4</v>
       </c>
       <c r="J14" s="3"/>
@@ -1867,19 +1982,19 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H15" s="15">
         <v>3</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="16">
         <v>1</v>
       </c>
       <c r="J15" s="3"/>
@@ -1890,19 +2005,19 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H16" s="15">
         <v>3</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="16">
         <v>2</v>
       </c>
       <c r="J16" s="3"/>
@@ -1913,19 +2028,19 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H17" s="15">
         <v>3</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="16">
         <v>2</v>
       </c>
       <c r="J17" s="3"/>
@@ -1936,19 +2051,19 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H18" s="15">
         <v>6</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="16">
         <v>5</v>
       </c>
       <c r="J18" s="3"/>
@@ -1959,19 +2074,19 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H19" s="15">
         <v>6</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="16">
         <v>4</v>
       </c>
       <c r="J19" s="3"/>
@@ -1982,19 +2097,19 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H20" s="15">
         <v>4</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="16">
         <v>3</v>
       </c>
       <c r="J20" s="3"/>
@@ -2031,27 +2146,27 @@
         <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H23" s="15">
         <v>4</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="16">
         <v>2</v>
       </c>
       <c r="J23" s="3"/>
@@ -2062,19 +2177,19 @@
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H24" s="15">
         <v>3</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="16">
         <v>1</v>
       </c>
       <c r="J24" s="3"/>
@@ -2085,19 +2200,19 @@
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H25" s="15">
         <v>3</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="16">
         <v>2</v>
       </c>
       <c r="J25" s="3"/>
@@ -2108,19 +2223,19 @@
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H26" s="15">
         <v>3</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="16">
         <v>3</v>
       </c>
       <c r="J26" s="3"/>
@@ -2131,19 +2246,19 @@
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H27" s="15">
         <v>2</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="16">
         <v>2</v>
       </c>
       <c r="J27" s="3"/>
@@ -2154,19 +2269,19 @@
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H28" s="15">
         <v>6</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="17">
         <v>4</v>
       </c>
       <c r="J28" s="3"/>
@@ -2177,19 +2292,19 @@
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H29" s="15">
         <v>3</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="16">
         <v>3</v>
       </c>
       <c r="J29" s="3"/>
@@ -2204,7 +2319,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="20"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
@@ -2213,25 +2328,25 @@
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H31" s="15">
         <v>4</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="16">
         <v>2</v>
       </c>
       <c r="J31" s="3"/>
@@ -2242,19 +2357,19 @@
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H32" s="15">
         <v>3</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="16">
         <v>3</v>
       </c>
       <c r="J32" s="3"/>
@@ -2265,19 +2380,19 @@
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H33" s="15">
         <v>4</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="17">
         <v>3</v>
       </c>
       <c r="J33" s="3"/>
@@ -2288,19 +2403,19 @@
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H34" s="15">
         <v>2</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="16">
         <v>2</v>
       </c>
       <c r="J34" s="3"/>
@@ -2315,7 +2430,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="20"/>
+      <c r="I35" s="16"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
@@ -2324,25 +2439,25 @@
         <v>5</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H36" s="15">
         <v>4</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="16">
         <v>2</v>
       </c>
       <c r="J36" s="3"/>
@@ -2353,19 +2468,19 @@
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H37" s="15">
         <v>3</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="16">
         <v>2</v>
       </c>
       <c r="J37" s="3"/>
@@ -2376,19 +2491,19 @@
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H38" s="15">
         <v>3</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="16">
         <v>2</v>
       </c>
       <c r="J38" s="3"/>
@@ -2399,19 +2514,19 @@
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H39" s="15">
         <v>5</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="16">
         <v>4</v>
       </c>
       <c r="J39" s="3"/>
@@ -2422,19 +2537,19 @@
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H40" s="15">
         <v>6</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="16">
         <v>8</v>
       </c>
       <c r="J40" s="3"/>
@@ -2445,19 +2560,19 @@
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H41" s="15">
         <v>3</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="16">
         <v>3</v>
       </c>
       <c r="J41" s="3"/>
@@ -2468,19 +2583,19 @@
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H42" s="15">
         <v>3</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="16">
         <v>3</v>
       </c>
       <c r="J42" s="3"/>
@@ -2491,19 +2606,19 @@
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H43" s="15">
         <v>8</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="17">
         <v>8</v>
       </c>
       <c r="J43" s="3"/>
@@ -2514,19 +2629,19 @@
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H44" s="15">
         <v>8</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="17">
         <v>7</v>
       </c>
       <c r="J44" s="3"/>
@@ -2537,19 +2652,19 @@
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H45" s="15">
         <v>5</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="17">
         <v>2</v>
       </c>
       <c r="J45" s="3"/>
@@ -2560,19 +2675,19 @@
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H46" s="15">
         <v>6</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="17">
         <v>4</v>
       </c>
       <c r="J46" s="3"/>
@@ -2584,7 +2699,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="16"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
@@ -2593,25 +2708,25 @@
         <v>6</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H48" s="15">
         <v>1</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="16">
         <v>2</v>
       </c>
       <c r="J48" s="3"/>
@@ -2622,19 +2737,19 @@
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H49" s="15">
         <v>1</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="16">
         <v>2</v>
       </c>
       <c r="J49" s="3"/>
@@ -2645,19 +2760,19 @@
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H50" s="15">
         <v>1</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="16">
         <v>1</v>
       </c>
       <c r="J50" s="3"/>
@@ -2668,19 +2783,19 @@
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H51" s="15">
         <v>1</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51" s="16">
         <v>2</v>
       </c>
       <c r="J51" s="3"/>
@@ -2695,7 +2810,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="20"/>
+      <c r="I52" s="16"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
@@ -2704,25 +2819,25 @@
         <v>7</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H53" s="15">
         <v>2</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="16">
         <v>3</v>
       </c>
       <c r="J53" s="3"/>
@@ -2733,19 +2848,19 @@
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H54" s="15">
         <v>2</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="16">
         <v>2</v>
       </c>
       <c r="J54" s="3"/>
@@ -2756,19 +2871,19 @@
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H55" s="15">
         <v>1</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="16">
         <v>2</v>
       </c>
       <c r="J55" s="3"/>
@@ -2779,19 +2894,19 @@
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H56" s="15">
         <v>3</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="16">
         <v>2</v>
       </c>
       <c r="J56" s="3"/>
@@ -2802,19 +2917,19 @@
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H57" s="15">
         <v>4</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I57" s="16">
         <v>2</v>
       </c>
       <c r="J57" s="3"/>
@@ -2825,19 +2940,19 @@
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H58" s="15">
         <v>1</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="16">
         <v>2</v>
       </c>
       <c r="J58" s="3"/>
@@ -2848,19 +2963,19 @@
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H59" s="15">
         <v>1</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="16">
         <v>3</v>
       </c>
       <c r="J59" s="3"/>
@@ -2871,19 +2986,19 @@
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H60" s="15">
         <v>1</v>
       </c>
-      <c r="I60" s="20">
+      <c r="I60" s="16">
         <v>2</v>
       </c>
       <c r="J60" s="3"/>
@@ -2894,19 +3009,19 @@
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H61" s="15">
         <v>1</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I61" s="16">
         <v>3</v>
       </c>
       <c r="J61" s="3"/>
@@ -2917,19 +3032,19 @@
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H62" s="15">
         <v>5</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I62" s="16">
         <v>3</v>
       </c>
       <c r="J62" s="3"/>
@@ -2943,8 +3058,8 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="20"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="16"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
@@ -2953,25 +3068,25 @@
         <v>8</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H64" s="15">
         <v>6</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I64" s="16">
         <v>7</v>
       </c>
       <c r="J64" s="3"/>
@@ -2981,22 +3096,12 @@
       <c r="A65" s="4"/>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H65" s="15">
-        <v>8</v>
-      </c>
-      <c r="I65" s="23">
-        <v>7</v>
-      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="19"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
@@ -3008,8 +3113,8 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="20"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="16"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
@@ -3018,15 +3123,12 @@
         <v>9</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>28</v>
+        <v>97</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -3039,16 +3141,18 @@
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H68" s="15">
+        <v>5</v>
+      </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -3058,16 +3162,18 @@
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H69" s="15">
+        <v>5</v>
+      </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -3077,50 +3183,62 @@
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="H70" s="15">
+        <v>6</v>
+      </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
+    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H71" s="15">
+        <v>5</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
       <c r="K71" s="4"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>10</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="15">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
       <c r="K72" s="4"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3128,56 +3246,60 @@
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="4" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F73" s="3"/>
       <c r="G73" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H73" s="15">
+        <v>3</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
       <c r="K73" s="4"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
       <c r="K74" s="4"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="A75" s="3">
+        <v>10</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="D75" s="4" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F75" s="3"/>
       <c r="G75" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H75" s="15">
+        <v>6</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
       <c r="K75" s="4"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -3185,50 +3307,62 @@
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="4" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F76" s="3"/>
       <c r="G76" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H76" s="15">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
       <c r="K76" s="4"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" s="15">
+        <v>4</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
       <c r="K77" s="4"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>11</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" s="15">
+        <v>2</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
       <c r="K78" s="4"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -3236,18 +3370,20 @@
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F79" s="3"/>
       <c r="G79" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H79" s="15">
+        <v>3</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
       <c r="K79" s="4"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -3255,18 +3391,20 @@
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="4" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F80" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F80" s="3"/>
       <c r="G80" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H80" s="15">
+        <v>5</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
       <c r="K80" s="4"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3274,37 +3412,41 @@
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="4" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F81" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F81" s="3"/>
       <c r="G81" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H81" s="15">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="4" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F82" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F82" s="3"/>
       <c r="G82" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H82" s="15">
+        <v>3</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
       <c r="K82" s="4"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -3312,143 +3454,163 @@
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="4" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F83" s="3"/>
       <c r="G83" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H83" s="15">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="4" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F84" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F84" s="3"/>
       <c r="G84" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H84" s="15">
+        <v>6</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
       <c r="K84" s="4"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
       <c r="K85" s="4"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+      <c r="A86" s="3">
+        <v>11</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="D86" s="4" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F86" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H86" s="15">
+        <v>2</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
       <c r="K86" s="4"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
       <c r="D87" s="4" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F87" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F87" s="3"/>
       <c r="G87" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H87" s="15">
+        <v>4</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
       <c r="K87" s="4"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" s="15">
+        <v>4</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
       <c r="K88" s="4"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
-        <v>12</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" s="15">
+        <v>2</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
       <c r="K89" s="4"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H90" s="15">
+        <v>2</v>
+      </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -3458,82 +3620,954 @@
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="4" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H91" s="15">
+        <v>4</v>
+      </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+    <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
       <c r="D92" s="4" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H92" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H92" s="15">
+        <v>3</v>
+      </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" s="15">
+        <v>3</v>
+      </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
+    <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" s="15">
+        <v>5</v>
+      </c>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>12</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" s="15">
+        <v>2</v>
+      </c>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" s="15">
+        <v>2</v>
+      </c>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H100" s="15">
+        <v>8</v>
+      </c>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" s="15">
+        <v>5</v>
+      </c>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" s="15">
+        <v>5</v>
+      </c>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" s="15">
+        <v>5</v>
+      </c>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" s="15">
+        <v>2</v>
+      </c>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" s="15">
+        <v>6</v>
+      </c>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" s="15">
+        <v>8</v>
+      </c>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" s="15">
+        <v>4</v>
+      </c>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" s="15">
+        <v>4</v>
+      </c>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" s="15">
+        <v>8</v>
+      </c>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" s="15">
+        <v>4</v>
+      </c>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>13</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H112" s="15">
+        <v>4</v>
+      </c>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H113" s="15">
+        <v>5</v>
+      </c>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H114" s="15">
+        <v>4</v>
+      </c>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H115" s="15">
+        <v>6</v>
+      </c>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H116" s="15">
+        <v>6</v>
+      </c>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>14</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H122" s="15">
+        <v>3</v>
+      </c>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H123" s="15">
+        <v>4</v>
+      </c>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H124" s="15">
+        <v>3</v>
+      </c>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+    </row>
+    <row r="125" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H125" s="15">
+        <v>2</v>
+      </c>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>15</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H128" s="15">
+        <v>8</v>
+      </c>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>16</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H130" s="15">
+        <v>8</v>
+      </c>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H131" s="15">
+        <v>8</v>
+      </c>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H132" s="15">
+        <v>8</v>
+      </c>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G11 G13:G20 G23:G92">
-    <cfRule type="cellIs" dxfId="14" priority="67" operator="equal">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="G6:G11 G13:G20 G23:G138">
+    <cfRule type="cellIs" dxfId="14" priority="73" operator="equal">
       <formula>"In-Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="74" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"In-Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>"In-Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"In-Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"In-Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -3547,46 +4581,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="G6:G11 G13:G20 G23:G138">
+    <cfRule type="cellIs" dxfId="2" priority="218" operator="equal">
       <formula>"In-Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="219" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"In-Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="220" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G11 G13:G20 G23:G92">
-    <cfRule type="cellIs" dxfId="2" priority="212" operator="equal">
-      <formula>"In-Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="213" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="214" operator="equal">
-      <formula>"Not Started"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="215">
+    <cfRule type="colorScale" priority="221">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3598,7 +4603,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G20 G23:G92" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G20 G23:G125 G128 G130:G132" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Not Started,In-Progress,Completed,Removed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:F66 F7:F21" xr:uid="{5EB879C5-3EBD-4A6A-BA72-330D8D9C819B}">
@@ -3614,7 +4619,7 @@
           <x14:formula1>
             <xm:f>'Release Phase'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E90:E92 G21:H21 E67:E70 E73:E76 E79:E87 E8:E21 E23:E66</xm:sqref>
+          <xm:sqref>E122:E125 G21:H21 E68:E95 E8:E21 E23:E66 E98:E119 E128 E130:E132</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3637,7 +4642,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3648,7 +4653,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <f>'Product Backlog'!H5</f>
@@ -3683,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3694,10 +4699,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3705,10 +4710,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Deskify Documents/Product-Backlog.xlsx
+++ b/Deskify Documents/Product-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shwetha.b\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1F6CD2-2CA7-47E6-B38D-40AB7446A6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B4A733-784B-4792-8283-6955EBC65553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1662,7 +1662,7 @@
   <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="H129" sqref="H129"/>
